--- a/capiq_data/in_process_ids/ids 5.xlsx
+++ b/capiq_data/in_process_ids/ids 5.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_ids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_ids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC9C31-E27C-432F-A72A-0A0506B9C47D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C40EC69-84C1-4531-88ED-E06FA0874BA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"e6af6b94-e3c0-4b21-b6dc-a27adb0c6541"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"ccbaeee7-dd9b-45d3-92e3-15cf42989f46"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,7 +41,7 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
@@ -254,6 +254,9 @@
     <t>IQ Name</t>
   </si>
   <si>
+    <t>NLOK</t>
+  </si>
+  <si>
     <t>NCLH</t>
   </si>
   <si>
@@ -272,6 +275,9 @@
     <t>NVR</t>
   </si>
   <si>
+    <t>NXPI</t>
+  </si>
+  <si>
     <t>ORLY</t>
   </si>
   <si>
@@ -311,6 +317,9 @@
     <t>PYPL</t>
   </si>
   <si>
+    <t>PENN</t>
+  </si>
+  <si>
     <t>PNR</t>
   </si>
   <si>
@@ -470,9 +479,6 @@
     <t>SWKS</t>
   </si>
   <si>
-    <t>SLG</t>
-  </si>
-  <si>
     <t>SNA</t>
   </si>
   <si>
@@ -506,24 +512,6 @@
     <t>SNPS</t>
   </si>
   <si>
-    <t>SYY</t>
-  </si>
-  <si>
-    <t>TMUS</t>
-  </si>
-  <si>
-    <t>T-Mobile US, Inc.</t>
-  </si>
-  <si>
-    <t>IQ93339</t>
-  </si>
-  <si>
-    <t>Sysco Corporation</t>
-  </si>
-  <si>
-    <t>IQ189096</t>
-  </si>
-  <si>
     <t>Synopsys, Inc.</t>
   </si>
   <si>
@@ -590,12 +578,6 @@
     <t>IQ224055283</t>
   </si>
   <si>
-    <t>SL Green Realty Corp.</t>
-  </si>
-  <si>
-    <t>IQ364744</t>
-  </si>
-  <si>
     <t>Skyworks Solutions, Inc.</t>
   </si>
   <si>
@@ -908,6 +890,12 @@
     <t>IQ295688</t>
   </si>
   <si>
+    <t>Penn National Gaming, Inc.</t>
+  </si>
+  <si>
+    <t>IQ335919</t>
+  </si>
+  <si>
     <t>PayPal Holdings, Inc.</t>
   </si>
   <si>
@@ -980,6 +968,12 @@
     <t>IQ324289</t>
   </si>
   <si>
+    <t>NXP Semiconductors N.V.</t>
+  </si>
+  <si>
+    <t>IQ934467</t>
+  </si>
+  <si>
     <t>NVR, Inc.</t>
   </si>
   <si>
@@ -1014,6 +1008,12 @@
   </si>
   <si>
     <t>IQ4180463</t>
+  </si>
+  <si>
+    <t>NortonLifeLock Inc.</t>
+  </si>
+  <si>
+    <t>IQ35000</t>
   </si>
   <si>
     <t/>
@@ -1576,13 +1576,13 @@
         <v>259</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="D13" t="s">
         <v>259</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1593,13 +1593,13 @@
         <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D14" t="s">
         <v>259</v>
       </c>
       <c r="E14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -1610,13 +1610,13 @@
         <v>259</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -2256,13 +2256,13 @@
         <v>259</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" t="s">
         <v>259</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
@@ -2273,13 +2273,13 @@
         <v>259</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
         <v>259</v>
       </c>
       <c r="E54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
@@ -2290,13 +2290,13 @@
         <v>259</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D55" t="s">
         <v>259</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
